--- a/medicine/Pharmacie/Alemtuzumab/Alemtuzumab.xlsx
+++ b/medicine/Pharmacie/Alemtuzumab/Alemtuzumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'alemtuzumab (commercialisé sous les noms de Campath, MabCampath, Campath-1H et plus récemment de Lemtrada) est un anticorps monoclonal IgG1 kappa humanisé produit par génie génétique et spécifique d'une glycoprotéine de 21 à 28 kDa située à la surface des lymphocytes (CD52).
@@ -512,10 +524,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est principalement utilisé en thérapie contre les leucémies lymphoïdes chroniques.
-Le 28 juin 2013, le comité des médicaments à usage humain (CHMP) de l'Agence européenne des médicaments (EMA) a rendu un avis positif pour l'anticorps monoclonal alemtuzumab commercialisé sous le nom de Lemtrada dans la sclérose en plaques récurrente-rémittente (SEP-R) de l'adulte[2]. En 2019, elle en réexamine le rapport bénéfices-risques pour cette indication à la suite de notifications de réactions cardiovasculaires graves, d’hépatites auto-immunes récemment identifiées et de lymphohistiocytoses hémophagocytaires[3].
+Le 28 juin 2013, le comité des médicaments à usage humain (CHMP) de l'Agence européenne des médicaments (EMA) a rendu un avis positif pour l'anticorps monoclonal alemtuzumab commercialisé sous le nom de Lemtrada dans la sclérose en plaques récurrente-rémittente (SEP-R) de l'adulte. En 2019, elle en réexamine le rapport bénéfices-risques pour cette indication à la suite de notifications de réactions cardiovasculaires graves, d’hépatites auto-immunes récemment identifiées et de lymphohistiocytoses hémophagocytaires.
 </t>
         </is>
       </c>
